--- a/evaluate/win_rate_results/Ollama胜率总榜.xlsx
+++ b/evaluate/win_rate_results/Ollama胜率总榜.xlsx
@@ -475,16 +475,16 @@
         <v>150</v>
       </c>
       <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
         <v>144</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         <v>176</v>
       </c>
       <c r="C3" t="n">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>72.73</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>106</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>105</v>
-      </c>
-      <c r="C4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>74.29000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         <v>67</v>
       </c>
       <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>97.01000000000001</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         <v>96</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>95</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>98.95999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>

--- a/evaluate/win_rate_results/Ollama胜率总榜.xlsx
+++ b/evaluate/win_rate_results/Ollama胜率总榜.xlsx
@@ -475,16 +475,16 @@
         <v>150</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         <v>176</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         <v>106</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.99</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         <v>96</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>7.29</v>
       </c>
     </row>
   </sheetData>
